--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт 115\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт 115\Practice-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Вариант 1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="Вариант 10" sheetId="7" r:id="rId7"/>
     <sheet name="Вариант 11" sheetId="8" r:id="rId8"/>
     <sheet name="Вариант 17" sheetId="9" r:id="rId9"/>
+    <sheet name="Вариант 26" sheetId="10" r:id="rId10"/>
+    <sheet name="Вариант 37" sheetId="12" r:id="rId11"/>
+    <sheet name="Вариант 38" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>Наименования устройства</t>
   </si>
@@ -180,6 +183,54 @@
   <si>
     <t>Средняя высота озер:</t>
   </si>
+  <si>
+    <t>Устройство</t>
+  </si>
+  <si>
+    <t>Цена в у.е.</t>
+  </si>
+  <si>
+    <t>Системная плата</t>
+  </si>
+  <si>
+    <t>Процессор</t>
+  </si>
+  <si>
+    <t>Оперативная память</t>
+  </si>
+  <si>
+    <t>Жесткий диск</t>
+  </si>
+  <si>
+    <t>Монитор</t>
+  </si>
+  <si>
+    <t>а</t>
+  </si>
+  <si>
+    <t>б</t>
+  </si>
+  <si>
+    <t>не (а)</t>
+  </si>
+  <si>
+    <t>не (б)</t>
+  </si>
+  <si>
+    <t>не (а) и не (б)</t>
+  </si>
+  <si>
+    <t>не (не (а) и не (б))</t>
+  </si>
+  <si>
+    <t>с</t>
+  </si>
+  <si>
+    <t>б или с</t>
+  </si>
+  <si>
+    <t>не (а) и (б или с)</t>
+  </si>
 </sst>
 </file>
 
@@ -317,9 +368,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -337,6 +385,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -398,7 +449,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -516,9 +566,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-BB73-4AAC-AE8B-56A0F712DD83}"/>
                 </c:ext>
@@ -540,9 +588,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-BB73-4AAC-AE8B-56A0F712DD83}"/>
                 </c:ext>
@@ -615,9 +661,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -677,7 +721,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -810,7 +853,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -924,9 +966,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-6BE6-41B9-A598-9D6EAF9E8D42}"/>
                 </c:ext>
@@ -948,9 +988,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-6BE6-41B9-A598-9D6EAF9E8D42}"/>
                 </c:ext>
@@ -1023,9 +1061,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1085,7 +1121,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1218,7 +1253,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1538,7 +1572,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1912,7 +1945,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2449,6 +2481,300 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Цена устройств</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Вариант 26'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Системная плата</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Процессор</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Оперативная память</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Жесткий диск</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Монитор</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Вариант 26'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>247.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1650</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C9A-4BB4-811A-44FDE90E1735}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2673,6 +2999,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
@@ -5391,6 +5757,525 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5585,6 +6470,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -5901,6 +6821,415 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="9">
+        <v>80</v>
+      </c>
+      <c r="C2" s="9">
+        <f>B2*$F$3</f>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="9">
+        <v>70</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C6" si="0">B3*$F$3</f>
+        <v>1155</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="9">
+        <v>15</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>247.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="9">
+        <v>100</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="9">
+        <v>200</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>3300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <f>NOT(A2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <f>OR(B2,C2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <f>AND(D2,E2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <f t="shared" ref="D3:D9" si="0">NOT(A3)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <f t="shared" ref="E3:E9" si="1">OR(B3,C3)</f>
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <f t="shared" ref="F3:F9" si="2">AND(D3,E3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="b">
+        <f>NOT(A2)</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <f>NOT(C2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <f>AND(B2,D2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <f>NOT(E2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="b">
+        <f>NOT(A3)</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <f>NOT(C3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <f>AND(B3,D3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <f>NOT(E3)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
@@ -5918,12 +7247,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -6037,10 +7366,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -6094,21 +7423,21 @@
       <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="13">
         <v>67.5</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6116,7 +7445,7 @@
       <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>1350</v>
       </c>
       <c r="C3" s="9">
@@ -6128,7 +7457,7 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>450</v>
       </c>
       <c r="C4" s="9">
@@ -6152,48 +7481,48 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="A2" s="12">
         <v>20</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>25</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>32</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>30</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>23</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>30</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>20</v>
       </c>
     </row>
@@ -6250,7 +7579,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <f t="shared" ref="A5:A17" si="1">A4+$B$1</f>
+        <f t="shared" ref="A5:A13" si="1">A4+$B$1</f>
         <v>-0.60000000000000009</v>
       </c>
       <c r="B5" s="9">
@@ -6889,8 +8218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6902,16 +8231,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>41</v>
       </c>
     </row>
